--- a/tspi/ciclo-1/task1/20106065.xlsx
+++ b/tspi/ciclo-1/task1/20106065.xlsx
@@ -29,7 +29,7 @@
     <t>Planning Manager</t>
   </si>
   <si>
-    <t>Experimiento GitHub #1.</t>
+    <t>Ver video tutorial de GitHub.</t>
   </si>
   <si>
     <t>Realizar el lanzamiento del ciclo #1 de TSPi.</t>
@@ -207,21 +207,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C1" activeCellId="0" pane="topLeft" sqref="C1"/>
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="40.0666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.68627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.68627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.0313725490196"/>
-    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="1007" style="0" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="40.2666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="2.70588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="2.70588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="20.1333333333333"/>
+    <col collapsed="false" hidden="false" max="1006" min="7" style="3" width="11.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="1007" style="0" width="11.9294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.95" outlineLevel="0" r="1">
@@ -317,9 +317,6 @@
         <f aca="false">15/60</f>
         <v>0.25</v>
       </c>
-      <c r="AMH6" s="0"/>
-      <c r="AMI6" s="0"/>
-      <c r="AMJ6" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="26.65" outlineLevel="0" r="7" s="9">
       <c r="A7" s="6" t="n">
@@ -336,9 +333,6 @@
         <f aca="false">40/60</f>
         <v>0.666666666666667</v>
       </c>
-      <c r="AMH7" s="0"/>
-      <c r="AMI7" s="0"/>
-      <c r="AMJ7" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="8" s="9">
       <c r="A8" s="6" t="n">
@@ -355,9 +349,6 @@
         <f aca="false">25/60</f>
         <v>0.416666666666667</v>
       </c>
-      <c r="AMH8" s="0"/>
-      <c r="AMI8" s="0"/>
-      <c r="AMJ8" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="14.15" outlineLevel="0" r="9" s="9">
       <c r="A9" s="6" t="n">
@@ -374,9 +365,6 @@
         <f aca="false">35/60</f>
         <v>0.583333333333333</v>
       </c>
-      <c r="AMH9" s="0"/>
-      <c r="AMI9" s="0"/>
-      <c r="AMJ9" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
